--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExpenseTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D13482-2BF0-4274-9B75-6833B7FED1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300101CF-EF7A-4E04-BA89-B77D92FB68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D21E1D19-5040-4208-A1D2-A29BF69426C1}"/>
   </bookViews>
@@ -328,6 +328,148 @@
             <a:rPr lang="en-IN" sz="1100"/>
             <a:t>Drop Down</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>803031</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5B9C7E-F073-4595-9077-AA4625193940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162908" y="2684582"/>
+          <a:ext cx="797169" cy="281355"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Add</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11722</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140677</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41031</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59AE1DD-1664-4640-A912-838D4273C09F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3047999" y="2690446"/>
+          <a:ext cx="738555" cy="257908"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Cancel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -640,7 +782,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
